--- a/docs/StructureDefinition-Patient.xlsx
+++ b/docs/StructureDefinition-Patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Patient.xlsx
+++ b/docs/StructureDefinition-Patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Patient.xlsx
+++ b/docs/StructureDefinition-Patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Patient.xlsx
+++ b/docs/StructureDefinition-Patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Patient.xlsx
+++ b/docs/StructureDefinition-Patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1012,7 +1012,8 @@
     <t>1808: terminologyMaps using VF_genderIdentity on PATIENT - SELF IDENTIFIED GENDER (2-.024)</t>
   </si>
   <si>
-    <t>Patient.Patient.SelfIdentifiedGender,SPatient.SPatient.SelfIdentifiedGender</t>
+    <t>Patient.Patient.SelfIdentifiedGender
+SPatient.SPatient.SelfIdentifiedGender</t>
   </si>
   <si>
     <t>Patient.extension:patient-religion</t>
@@ -1062,7 +1063,12 @@
     <t>1598: terminologyMaps using VF_Religion on PATIENT - RELIGIOUS PREFERENCE (2-.08)</t>
   </si>
   <si>
-    <t>Outpat.Visit.PatientReligion,Outpat.Visit.PatientReligionCode,Outpat.Workload.PatientReligion,Outpat.Workload.PatientReligionCode,Patient.Patient.ReligionIEN,SPatient.SPatient.ReligionIEN</t>
+    <t>Outpat.Visit.PatientReligion
+Outpat.Visit.PatientReligionCode
+Outpat.Workload.PatientReligion
+Outpat.Workload.PatientReligionCode
+Patient.Patient.ReligionIEN
+SPatient.SPatient.ReligionIEN</t>
   </si>
   <si>
     <t>Patient.Religion</t>
@@ -1319,7 +1325,10 @@
     <t>272: source value based on PATIENT - INTEGRATION CONTROL NUMBER (2-991.01)</t>
   </si>
   <si>
-    <t>Patient.Patient.PatientICN,Patient.PatientICN.PatientICN,SPatient.SPatient.PatientICN,SPatient.SPatientGISAddress.PatientICN</t>
+    <t>Patient.Patient.PatientICN
+Patient.PatientICN.PatientICN
+SPatient.SPatient.PatientICN
+SPatient.SPatientGISAddress.PatientICN</t>
   </si>
   <si>
     <t>demographics.icn</t>
@@ -1490,13 +1499,19 @@
     <t>273: source value based on PATIENT - NAME (2-.01)</t>
   </si>
   <si>
-    <t>SPatient.SPatient.DestinationMergePatientIEN,SPatient.SPatient.PatientFirstName,SPatient.SPatient.PatientLastName,SPatient.SPatient.PatientName,SPatient.SPatientAlias.PatientName</t>
+    <t>SPatient.SPatient.DestinationMergePatientIEN
+SPatient.SPatient.PatientFirstName
+SPatient.SPatient.PatientLastName
+SPatient.SPatient.PatientName
+SPatient.SPatientAlias.PatientName</t>
   </si>
   <si>
     <t>Patient.Name</t>
   </si>
   <si>
-    <t>demographics.familyName,demographics.fullName,demographics.givenNames</t>
+    <t>demographics.familyName
+demographics.fullName
+demographics.givenNames</t>
   </si>
   <si>
     <t>./formatted</t>
@@ -1935,10 +1950,15 @@
     <t>555: terminologyMaps using VF_adminGender on PATIENT - SEX (2-.02)</t>
   </si>
   <si>
-    <t>Patient.Patient.Gender,Patient.PatientBirthSex.BirthSex,SPatient.SPatient.Gender,SPatient.SPatientBirthSex.BirthSex,SPatient.SPatientBirthSex.BirthSex</t>
-  </si>
-  <si>
-    <t>Patient.BirthGender,Patient.Gender</t>
+    <t>Patient.Patient.Gender
+Patient.PatientBirthSex.BirthSex
+SPatient.SPatient.Gender
+SPatient.SPatientBirthSex.BirthSex
+SPatient.SPatientBirthSex.BirthSex</t>
+  </si>
+  <si>
+    <t>Patient.BirthGender
+Patient.Gender</t>
   </si>
   <si>
     <t>demographics.gender</t>
@@ -1972,10 +1992,12 @@
     <t>284: source value based on PATIENT - DATE OF BIRTH (2-.03)</t>
   </si>
   <si>
-    <t>SPatient.PlaceOfBirth.BirthDateTime,SPatient.SPatient.BirthDateTime</t>
-  </si>
-  <si>
-    <t>Patient.BirthTime,Patient.Extension[PatientExtension].Dob</t>
+    <t>SPatient.PlaceOfBirth.BirthDateTime
+SPatient.SPatient.BirthDateTime</t>
+  </si>
+  <si>
+    <t>Patient.BirthTime
+Patient.Extension[PatientExtension].Dob</t>
   </si>
   <si>
     <t>demographics.dob</t>
@@ -2039,10 +2061,12 @@
     <t>285: source value based on PATIENT - DATE OF DEATH (2-.351) if not null</t>
   </si>
   <si>
-    <t>Patient.Patient.DeathDateTime,SPatient.SPatient.DeathDateTime</t>
-  </si>
-  <si>
-    <t>Patient.DeathTime,Patient.IsDead</t>
+    <t>Patient.Patient.DeathDateTime
+SPatient.SPatient.DeathDateTime</t>
+  </si>
+  <si>
+    <t>Patient.DeathTime
+Patient.IsDead</t>
   </si>
   <si>
     <t>demographics.died</t>
@@ -2392,7 +2416,8 @@
     <t>290: source value based on PATIENT - STATE (2-.115)</t>
   </si>
   <si>
-    <t>SPatient.SPatientGISAddress.StateIEN,SPatient.SPatientGISAddress.StateSID</t>
+    <t>SPatient.SPatientGISAddress.StateIEN
+SPatient.SPatientGISAddress.StateSID</t>
   </si>
   <si>
     <t>Patient.PermanentAddress[Address].State</t>
@@ -2519,7 +2544,10 @@
     <t>1597: terminologyMaps using VF_MaritalStatus on PATIENT - MARITAL STATUS (2-.05)</t>
   </si>
   <si>
-    <t>Outpat.Visit.PatientMaritalStatus,Outpat.Workload.PatientMaritalStatus,Patient.Patient.MaritalStatusIEN,SPatient.SPatient.MaritalStatusIEN</t>
+    <t>Outpat.Visit.PatientMaritalStatus
+Outpat.Workload.PatientMaritalStatus
+Patient.Patient.MaritalStatusIEN
+SPatient.SPatient.MaritalStatusIEN</t>
   </si>
   <si>
     <t>Patient.MaritalStatus</t>
@@ -3410,9 +3438,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="102.61328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="150.328125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="47.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="63.2578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="37.671875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="44.26953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="134.453125" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="34.98828125" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="31.65234375" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-Patient.xlsx
+++ b/docs/StructureDefinition-Patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Patient.xlsx
+++ b/docs/StructureDefinition-Patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
